--- a/coefficients_hlis223and224.xlsx
+++ b/coefficients_hlis223and224.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhirata/Desktop/Grants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhirata/Desktop/WFIRST-GitHub/wlrequirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB7FA0-D591-DA49-BC76-388588B71294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0173DE76-FD26-544F-AFA2-2A0C06068DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="3" xr2:uid="{56749473-16E9-114F-A9E6-53CD8F3D4E0B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="BFE_test" sheetId="6" r:id="rId5"/>
     <sheet name="ERUN" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6080CC-C47D-C34A-8699-739DF8F90710}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9323,7 +9323,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9466,11 +9466,11 @@
       </c>
       <c r="D9" s="2">
         <f>L17*L26</f>
-        <v>1.9279537727860595E-4</v>
+        <v>1.4459653295895443E-4</v>
       </c>
       <c r="H9" s="2">
         <f>L18*L26</f>
-        <v>4.4293500000000004E-4</v>
+        <v>3.3220124999999999E-4</v>
       </c>
       <c r="K9" t="s">
         <v>66</v>
@@ -9588,11 +9588,11 @@
       </c>
       <c r="D16" s="2">
         <f>SQRT(SUMSQ(D5:D12))</f>
-        <v>3.1424752192875182E-4</v>
+        <v>2.8721003617929397E-4</v>
       </c>
       <c r="H16" s="2">
         <f>SQRT(SUMSQ(H5:H12))</f>
-        <v>6.9907771053479061E-4</v>
+        <v>6.3472505988272339E-4</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
@@ -9639,11 +9639,11 @@
       </c>
       <c r="D18" s="2">
         <f>SQRT(D17^2-D16^2)</f>
-        <v>4.7555072806340924E-4</v>
+        <v>4.923519017104418E-4</v>
       </c>
       <c r="H18" s="2">
         <f>SQRT(H17^2-H16^2)</f>
-        <v>1.7230889307704247E-4</v>
+        <v>3.3988836160844533E-4</v>
       </c>
       <c r="K18" t="s">
         <v>52</v>
@@ -9710,7 +9710,7 @@
         <v>53</v>
       </c>
       <c r="L26" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>54</v>
